--- a/pred_ohlcv/54_21/2019-11-18 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 ICX ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>1092234.118749139</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1010113.701549139</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1010113.701549139</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1124957.139749139</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1221760.183349139</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1318947.430736858</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1448349.494208158</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1499599.805357303</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1493663.547292805</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1781495.357912456</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1717758.389412456</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1711988.959412456</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1759931.332712456</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1703159.526139924</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1696185.636539924</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1715348.722622819</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1701822.800422819</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1719897.416822819</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1719897.416822819</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1721222.371922818</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1719667.911922819</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1619131.052622819</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1619131.052622819</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-18 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 ICX ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-10240.34751276596</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1092234.118749139</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1010113.701549139</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1010113.701549139</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1124957.139749139</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1221760.183349139</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1318947.430736858</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1448349.494208158</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1499599.805357303</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1488081.075856561</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1781495.357912456</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1717758.389412456</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1711988.959412456</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1759931.332712456</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1703159.526139924</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1696185.636539924</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1719667.911922819</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1561476.282822819</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1560187.818222819</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1529404.210425102</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
